--- a/CEC_txt_to_xlsx/OUTPUTS/RANKTABLE_D10.xlsx
+++ b/CEC_txt_to_xlsx/OUTPUTS/RANKTABLE_D10.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7860"/>
+    <workbookView windowWidth="19485" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CEC2017" sheetId="1" r:id="rId1"/>
+    <sheet name="com TLBO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="97">
   <si>
     <t>D = 10</t>
   </si>
@@ -302,6 +303,9 @@
   </si>
   <si>
     <t>VITÓRIAS</t>
+  </si>
+  <si>
+    <t>TLBO-FL</t>
   </si>
 </sst>
 </file>
@@ -310,11 +314,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -349,14 +353,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -372,6 +368,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -380,30 +383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -419,7 +400,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,29 +452,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +502,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,79 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +550,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,60 +670,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -701,9 +705,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -712,9 +714,7 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -727,9 +727,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -742,9 +740,7 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -865,6 +861,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -881,7 +890,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -894,15 +947,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,6 +963,34 @@
       <left style="thin">
         <color theme="0"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -947,6 +1028,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -978,24 +1074,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,153 +1094,151 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,7 +1248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1214,12 +1295,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1232,13 +1313,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1250,28 +1331,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1620,7 +1734,7 @@
   <sheetPr/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1636,33 +1750,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="30" t="s">
+      <c r="A2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8"/>
@@ -1684,7 +1798,7 @@
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="12">
@@ -1702,13 +1816,13 @@
       <c r="E4" s="12">
         <v>2</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="33">
-        <v>1</v>
-      </c>
-      <c r="H4" s="31"/>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12">
@@ -1726,13 +1840,13 @@
       <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="14">
@@ -1744,19 +1858,19 @@
       <c r="C6" s="14">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="14">
         <v>3</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="14">
@@ -1768,19 +1882,19 @@
       <c r="C7" s="14">
         <v>3</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="14">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="14">
@@ -1792,19 +1906,19 @@
       <c r="C8" s="14">
         <v>3</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="14">
@@ -1816,19 +1930,19 @@
       <c r="C9" s="14">
         <v>3</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="14">
         <v>2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="14">
@@ -1840,19 +1954,19 @@
       <c r="C10" s="14">
         <v>3</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="14">
         <v>2</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="14">
@@ -1864,19 +1978,19 @@
       <c r="C11" s="14">
         <v>3</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="14">
@@ -1888,19 +2002,19 @@
       <c r="C12" s="14">
         <v>3</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="14">
         <v>2</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="14">
@@ -1912,19 +2026,19 @@
       <c r="C13" s="14">
         <v>3</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="14">
         <v>2</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="14">
@@ -1936,19 +2050,19 @@
       <c r="C14" s="14">
         <v>3</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="14">
         <v>2</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="14">
         <v>1</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="14">
@@ -1960,19 +2074,19 @@
       <c r="C15" s="14">
         <v>3</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="14">
         <v>2</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="14">
@@ -1984,19 +2098,19 @@
       <c r="C16" s="14">
         <v>3</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="14">
         <v>2</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="14">
         <v>1</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="14">
@@ -2008,19 +2122,19 @@
       <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="14">
         <v>2</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="14">
@@ -2032,19 +2146,19 @@
       <c r="C18" s="14">
         <v>3</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="14">
         <v>2</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="14">
@@ -2056,19 +2170,19 @@
       <c r="C19" s="14">
         <v>2</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="14">
         <v>3</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="14">
@@ -2080,19 +2194,19 @@
       <c r="C20" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="14">
         <v>2</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14">
@@ -2104,19 +2218,19 @@
       <c r="C21" s="14">
         <v>3</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="14">
         <v>2</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="14">
@@ -2128,19 +2242,19 @@
       <c r="C22" s="14">
         <v>3</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="14">
         <v>1</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>61</v>
       </c>
       <c r="G22" s="14">
         <v>2</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="14">
@@ -2152,19 +2266,19 @@
       <c r="C23" s="14">
         <v>3</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="14">
         <v>2</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="17" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="14">
         <v>1</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="14">
@@ -2176,19 +2290,19 @@
       <c r="C24" s="14">
         <v>3</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="14">
         <v>1</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>67</v>
       </c>
       <c r="G24" s="14">
         <v>2</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="14">
@@ -2200,19 +2314,19 @@
       <c r="C25" s="14">
         <v>2</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="14">
         <v>1</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>70</v>
       </c>
       <c r="G25" s="14">
         <v>3</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="14">
@@ -2224,43 +2338,43 @@
       <c r="C26" s="14">
         <v>2</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="14">
         <v>1</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G26" s="14">
         <v>3</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="14">
         <v>24</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>75</v>
       </c>
       <c r="E27" s="14">
         <v>3</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="14">
         <v>2</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="14">
@@ -2272,19 +2386,19 @@
       <c r="C28" s="14">
         <v>3</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>78</v>
       </c>
       <c r="E28" s="14">
         <v>2</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="17" t="s">
         <v>79</v>
       </c>
       <c r="G28" s="14">
         <v>1</v>
       </c>
-      <c r="H28" s="31"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="14">
@@ -2296,19 +2410,19 @@
       <c r="C29" s="14">
         <v>2</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>81</v>
       </c>
       <c r="E29" s="14">
         <v>1</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="14">
         <v>3</v>
       </c>
-      <c r="H29" s="31"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="14">
@@ -2320,19 +2434,19 @@
       <c r="C30" s="14">
         <v>2</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="14">
         <v>1</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="14">
         <v>3</v>
       </c>
-      <c r="H30" s="31"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="14">
@@ -2344,19 +2458,19 @@
       <c r="C31" s="14">
         <v>3</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="14">
         <v>1</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>88</v>
       </c>
       <c r="G31" s="14">
         <v>2</v>
       </c>
-      <c r="H31" s="31"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="14">
@@ -2368,19 +2482,19 @@
       <c r="C32" s="14">
         <v>2</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G32" s="14">
         <v>3</v>
       </c>
-      <c r="H32" s="31"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="18">
@@ -2398,13 +2512,13 @@
       <c r="E33" s="20">
         <v>2</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="36" t="s">
         <v>93</v>
       </c>
       <c r="G33" s="20">
         <v>1</v>
       </c>
-      <c r="H33" s="31"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
@@ -2425,7 +2539,7 @@
         <f>AVERAGE(G4:G33)</f>
         <v>1.89655172413793</v>
       </c>
-      <c r="H34" s="35"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="26" t="s">
@@ -2446,7 +2560,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="27"/>
-      <c r="H35" s="31"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="28"/>
@@ -2455,8 +2569,8 @@
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2472,4 +2586,1026 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="9.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="31">
+        <v>2</v>
+      </c>
+      <c r="H4" s="32">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.00011</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="34">
+        <v>3</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35">
+        <v>8.8</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
+      <c r="H9" s="35">
+        <v>8.4e-8</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14">
+        <v>2</v>
+      </c>
+      <c r="H10" s="35">
+        <v>28</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14">
+        <v>4</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3</v>
+      </c>
+      <c r="H11" s="35">
+        <v>12</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="14">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="14">
+        <v>3</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0.0089</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="14">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="14">
+        <v>2</v>
+      </c>
+      <c r="H13" s="34">
+        <v>950</v>
+      </c>
+      <c r="I13" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2</v>
+      </c>
+      <c r="H14" s="35">
+        <v>4.1</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="14">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="14">
+        <v>4</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="14">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="35">
+        <v>66000</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="14">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="14">
+        <v>4</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="14">
+        <v>2</v>
+      </c>
+      <c r="H16" s="35">
+        <v>2400</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="14">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="14">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="14">
+        <v>3</v>
+      </c>
+      <c r="H17" s="35">
+        <v>67</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="14">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="14">
+        <v>4</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="14">
+        <v>3</v>
+      </c>
+      <c r="H18" s="35">
+        <v>130</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="14">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="14">
+        <v>4</v>
+      </c>
+      <c r="H19" s="35">
+        <v>8.9</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="14">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+      <c r="H20" s="34">
+        <v>38</v>
+      </c>
+      <c r="I20" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="14">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="14">
+        <v>4</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3</v>
+      </c>
+      <c r="H21" s="34">
+        <v>6200</v>
+      </c>
+      <c r="I21" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="14">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="14">
+        <v>4</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="35">
+        <v>61</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="14">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="14">
+        <v>3</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="34">
+        <v>15</v>
+      </c>
+      <c r="I23" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="14">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="14">
+        <v>4</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="14">
+        <v>3</v>
+      </c>
+      <c r="H24" s="34">
+        <v>140</v>
+      </c>
+      <c r="I24" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="14">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="14">
+        <v>4</v>
+      </c>
+      <c r="H25" s="35">
+        <v>93</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="14">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="14">
+        <v>3</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="14">
+        <v>4</v>
+      </c>
+      <c r="H26" s="35">
+        <v>310</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="14">
+        <v>24</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="14">
+        <v>4</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="14">
+        <v>3</v>
+      </c>
+      <c r="H27" s="35">
+        <v>310</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="14">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="14">
+        <v>4</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="34">
+        <v>430</v>
+      </c>
+      <c r="I28" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="14">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="14">
+        <v>4</v>
+      </c>
+      <c r="H29" s="35">
+        <v>300</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="14">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="14">
+        <v>3</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="14">
+        <v>4</v>
+      </c>
+      <c r="H30" s="35">
+        <v>390</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="14">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="14">
+        <v>4</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="14">
+        <v>3</v>
+      </c>
+      <c r="H31" s="35">
+        <v>450</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="14">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="14">
+        <v>2</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="14">
+        <v>4</v>
+      </c>
+      <c r="H32" s="35">
+        <v>270</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="18">
+        <v>30</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="20">
+        <v>4</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
+      <c r="H33" s="37">
+        <v>280000</v>
+      </c>
+      <c r="I33" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24">
+        <f t="shared" ref="C34:G34" si="0">AVERAGE(C4:C33)</f>
+        <v>3.55172413793103</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="24">
+        <f t="shared" si="0"/>
+        <v>2.27586206896552</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="24">
+        <f t="shared" si="0"/>
+        <v>2.75862068965517</v>
+      </c>
+      <c r="H34" s="38"/>
+      <c r="I34" s="24">
+        <f>AVERAGE(I4:I33)</f>
+        <v>1.41379310344828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="27">
+        <f t="shared" ref="B35:F35" si="1">COUNTIF(C4:C33,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27">
+        <f>COUNTIF(I4:I33,1)</f>
+        <v>21</v>
+      </c>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>